--- a/ExcelInput/InputExcel.xlsx
+++ b/ExcelInput/InputExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\workspace\Themes_and_Epics_Module\ExcelInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B075E0-25F4-4AE9-B62D-D05F479E789F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3562F0C3-E7FE-4704-AD94-DC6DFCB6EC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Testing for unblocking</t>
+  </si>
+  <si>
+    <t>TEXT(1,"0"); </t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -398,8 +401,8 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
